--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,234 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>username</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>surname</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>forename</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>email</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>profile_pic</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>birth</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TheBigCheese</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bigcheese26</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TheBigCheese@gmail.com</t>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>tees</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>static/profile_pics\devito.jpg</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tessa</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ticles</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>tessa@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>static/profile_pics\Metro man.jpg</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>static/profile_pics\Metro man.jpg</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2005-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>profile_pics/big danny.jpg</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coolsville</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cool</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cools</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ville</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>cool@gmail.com</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>profile_pics/O'neil.jpg</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
         </is>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>birth</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>profile_pic</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>birth</t>
         </is>
       </c>
     </row>
@@ -481,35 +481,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>TheBigCheese</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>cheese</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Big</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>tees</t>
+          <t>Cheesington</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test@gmail.com</t>
+          <t>cheese@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>static/profile_pics\devito.jpg</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>profile_pics/big danny.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -517,153 +521,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>Test1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tessa</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ticles</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>tessa@gmail.com</t>
+          <t>test@gmail.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>static/profile_pics\Metro man.jpg</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>test@gmail.com</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>static/profile_pics\Metro man.jpg</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2005-05-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>test3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>test@gmail.com</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>profile_pics/big danny.jpg</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2024-11-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Coolsville</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>cool</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Cools</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ville</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>cool@gmail.com</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>profile_pics/O'neil.jpg</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2024-11-11</t>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>profile_pics/KolyKolgate.jpg</t>
         </is>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,46 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>profile_pics/abeltasman.webp</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
